--- a/Bloque Cuantica-Estadistica/P8 Fermi/P8.xlsx
+++ b/Bloque Cuantica-Estadistica/P8 Fermi/P8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feyra\Desktop\UNI\UNI-Alicante\3er Año\Tecnicas Experimentales II\Cuantica\P8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpetas de datos\Desktop\UNI-Alicante\T-cnicas-experimentales-II\Bloque Cuantica-Estadistica\P8 Fermi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60890AAA-E588-4FD2-83D9-D6854A3C9483}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99664912-FDD4-4D29-88C4-327E9A9BAF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>E</t>
   </si>
@@ -266,10 +275,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1817,7 +1826,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1949,7 +1958,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cambiando Altura'!$V$6:$V$25</c:f>
+              <c:f>'Cambiando Altura'!$U$6:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2334,8 +2343,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>n(E) respecto a la altura</a:t>
+              <a:t>n(h) (toma</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> 2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2399,6 +2413,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'Cambiando Altura'!$Y$6:$Y$22</c:f>
@@ -2546,6 +2599,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>h (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2608,6 +2716,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (t= 10 s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3266,6 +3434,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'Cambiando Altura'!$T$54:$T$77</c:f>
@@ -3349,7 +3556,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cambiando Altura'!$V$54:$V$77</c:f>
+              <c:f>'Cambiando Altura'!$U$54:$U$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3467,6 +3674,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>h (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3529,6 +3791,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n (t = 10 s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10062,21 +10379,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView tabSelected="1" topLeftCell="U76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X75" sqref="X75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" customWidth="1"/>
-    <col min="19" max="19" width="32.44140625" customWidth="1"/>
-    <col min="24" max="24" width="22.44140625" customWidth="1"/>
-    <col min="25" max="25" width="12.77734375" customWidth="1"/>
-    <col min="31" max="31" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="31" max="31" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -10136,7 +10453,7 @@
       <c r="AD1" s="4"/>
       <c r="AJ1" s="4"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>1.5</v>
       </c>
@@ -10174,7 +10491,7 @@
       <c r="AD2" s="4"/>
       <c r="AJ2" s="4"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10208,7 +10525,7 @@
       <c r="AD3" s="4"/>
       <c r="AJ3" s="4"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R4" s="5"/>
       <c r="S4" t="s">
         <v>22</v>
@@ -10229,7 +10546,7 @@
       <c r="AD4" s="4"/>
       <c r="AJ4" s="4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10253,12 +10570,9 @@
         <v>19</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="X5" s="4"/>
@@ -10295,11 +10609,11 @@
       </c>
       <c r="AJ5" s="4"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>275</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <f>(A6-$E$3-$I$1)</f>
         <v>84</v>
       </c>
@@ -10317,11 +10631,10 @@
         <f>$Y$1 - S6-$Z$2</f>
         <v>38</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6">
+      <c r="U6" s="6">
         <v>7</v>
       </c>
-      <c r="W6" s="7">
+      <c r="V6" s="7">
         <v>10.130000000000001</v>
       </c>
       <c r="X6" s="4"/>
@@ -10356,11 +10669,11 @@
       </c>
       <c r="AJ6" s="4"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>272</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <f t="shared" ref="B7:B17" si="0">(A7-$E$3-$I$1)</f>
         <v>81</v>
       </c>
@@ -10379,11 +10692,10 @@
         <f t="shared" ref="T7:T25" si="1">$Y$1 - S7-$Z$2</f>
         <v>36</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6">
+      <c r="U7" s="6">
         <v>17</v>
       </c>
-      <c r="W7" s="7">
+      <c r="V7" s="7">
         <v>10.11</v>
       </c>
       <c r="X7" s="4"/>
@@ -10418,11 +10730,11 @@
       </c>
       <c r="AJ7" s="4"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>271</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -10441,11 +10753,10 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6">
+      <c r="U8" s="6">
         <v>39</v>
       </c>
-      <c r="W8" s="7">
+      <c r="V8" s="7">
         <v>10.07</v>
       </c>
       <c r="X8" s="4"/>
@@ -10482,11 +10793,11 @@
       </c>
       <c r="AJ8" s="4"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>265</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
@@ -10505,11 +10816,10 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6">
+      <c r="U9" s="6">
         <v>53</v>
       </c>
-      <c r="W9" s="7">
+      <c r="V9" s="7">
         <v>10</v>
       </c>
       <c r="X9" s="4"/>
@@ -10546,11 +10856,11 @@
       </c>
       <c r="AJ9" s="4"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>261</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -10570,11 +10880,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6">
+      <c r="U10" s="6">
         <v>81</v>
       </c>
-      <c r="W10" s="7">
+      <c r="V10" s="7">
         <v>9.94</v>
       </c>
       <c r="X10" s="4"/>
@@ -10611,11 +10920,11 @@
       </c>
       <c r="AJ10" s="4"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>258</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -10634,11 +10943,10 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6">
+      <c r="U11" s="6">
         <v>125</v>
       </c>
-      <c r="W11" s="7">
+      <c r="V11" s="7">
         <v>9.9499999999999993</v>
       </c>
       <c r="X11" s="4"/>
@@ -10675,11 +10983,11 @@
       </c>
       <c r="AJ11" s="4"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>254</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -10698,11 +11006,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6">
+      <c r="U12" s="6">
         <v>161</v>
       </c>
-      <c r="W12" s="7">
+      <c r="V12" s="7">
         <v>10.06</v>
       </c>
       <c r="X12" s="4"/>
@@ -10739,11 +11046,11 @@
       </c>
       <c r="AJ12" s="4"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>251</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -10762,11 +11069,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6">
+      <c r="U13" s="6">
         <v>184</v>
       </c>
-      <c r="W13" s="7">
+      <c r="V13" s="7">
         <v>9.94</v>
       </c>
       <c r="X13" s="4"/>
@@ -10803,11 +11109,11 @@
       </c>
       <c r="AJ13" s="4"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>249</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -10826,11 +11132,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6">
+      <c r="U14" s="6">
         <v>219</v>
       </c>
-      <c r="W14" s="7">
+      <c r="V14" s="7">
         <v>10.08</v>
       </c>
       <c r="X14" s="4"/>
@@ -10867,11 +11172,11 @@
       </c>
       <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>247</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -10890,11 +11195,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6">
+      <c r="U15" s="6">
         <v>240</v>
       </c>
-      <c r="W15" s="7">
+      <c r="V15" s="7">
         <v>10.15</v>
       </c>
       <c r="X15" s="4"/>
@@ -10931,11 +11235,11 @@
       </c>
       <c r="AJ15" s="4"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>244</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -10954,11 +11258,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6">
+      <c r="U16" s="6">
         <v>264</v>
       </c>
-      <c r="W16" s="7">
+      <c r="V16" s="7">
         <v>10.09</v>
       </c>
       <c r="X16" s="4"/>
@@ -10995,11 +11298,11 @@
       </c>
       <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>241</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -11012,11 +11315,10 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6">
+      <c r="U17" s="6">
         <v>305</v>
       </c>
-      <c r="W17" s="7">
+      <c r="V17" s="7">
         <v>10.050000000000001</v>
       </c>
       <c r="X17" s="4"/>
@@ -11053,14 +11355,14 @@
       </c>
       <c r="AJ17" s="4"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="R18" s="5"/>
       <c r="S18" s="6">
         <f t="shared" si="4"/>
@@ -11070,11 +11372,10 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6">
+      <c r="U18" s="6">
         <v>326</v>
       </c>
-      <c r="W18" s="7">
+      <c r="V18" s="7">
         <v>10.07</v>
       </c>
       <c r="X18" s="4"/>
@@ -11111,12 +11412,12 @@
       </c>
       <c r="AJ18" s="4"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="R19" s="5"/>
       <c r="S19" s="6">
         <f t="shared" si="4"/>
@@ -11159,12 +11460,12 @@
       </c>
       <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="R20" s="5"/>
       <c r="S20" s="6">
         <f t="shared" si="4"/>
@@ -11207,12 +11508,12 @@
       </c>
       <c r="AJ20" s="4"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="R21" s="5"/>
       <c r="S21" s="6">
         <f t="shared" si="4"/>
@@ -11255,7 +11556,7 @@
       </c>
       <c r="AJ21" s="4"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R22" s="5"/>
       <c r="S22" s="6">
         <f t="shared" si="4"/>
@@ -11298,7 +11599,7 @@
       </c>
       <c r="AJ22" s="4"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R23" s="5"/>
       <c r="S23" s="6">
         <f t="shared" si="4"/>
@@ -11334,7 +11635,7 @@
       </c>
       <c r="AJ23" s="4"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R24" s="5"/>
       <c r="S24" s="6">
         <f t="shared" si="4"/>
@@ -11371,7 +11672,7 @@
       </c>
       <c r="AJ24" s="4"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R25" s="5"/>
       <c r="S25" s="6">
         <f t="shared" si="4"/>
@@ -11408,7 +11709,7 @@
       </c>
       <c r="AJ25" s="4"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R26" s="5"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -11434,7 +11735,7 @@
       </c>
       <c r="AJ26" s="4"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R27" s="5"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="6">
@@ -11454,7 +11755,7 @@
       </c>
       <c r="AJ27" s="4"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R28" s="5"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="15">
@@ -11474,7 +11775,7 @@
       </c>
       <c r="AJ28" s="4"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R29" s="5"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="8">
@@ -11494,7 +11795,7 @@
       </c>
       <c r="AJ29" s="4"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R30" s="5"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
@@ -11504,7 +11805,7 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R31" s="5"/>
       <c r="AE31" s="8"/>
       <c r="AF31" s="8"/>
@@ -11513,7 +11814,7 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="4"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R32" s="5"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -11521,7 +11822,7 @@
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -11532,7 +11833,7 @@
       <c r="AH33" s="17"/>
       <c r="AI33" s="17"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -11561,7 +11862,7 @@
       <c r="AH34" s="17"/>
       <c r="AI34" s="17"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>1.5</v>
       </c>
@@ -11581,7 +11882,7 @@
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -11598,7 +11899,7 @@
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -11617,11 +11918,11 @@
       <c r="R37" s="5"/>
       <c r="AJ37" s="6"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>283</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="18">
         <f>(A38-$E$3-$I$1)</f>
         <v>92</v>
       </c>
@@ -11633,11 +11934,11 @@
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>281</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="18">
         <f t="shared" ref="B39:B47" si="8">(A39-$E$3-$I$1)</f>
         <v>90</v>
       </c>
@@ -11649,11 +11950,11 @@
       </c>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>278</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
@@ -11665,11 +11966,11 @@
       </c>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>273</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="18">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
@@ -11681,11 +11982,11 @@
       </c>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>268</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="18">
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
@@ -11698,11 +11999,11 @@
       </c>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>264</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="18">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
@@ -11714,11 +12015,11 @@
       </c>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>263</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="18">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
@@ -11730,11 +12031,11 @@
       </c>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>262</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="18">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
@@ -11747,11 +12048,11 @@
       </c>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>259</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="18">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
@@ -11764,11 +12065,11 @@
       </c>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>250</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="18">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
@@ -11781,13 +12082,13 @@
       </c>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <f>B38</f>
         <v>92</v>
@@ -11798,7 +12099,7 @@
       </c>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <f t="shared" ref="B50:B57" si="9">B39</f>
         <v>90</v>
@@ -11809,7 +12110,7 @@
       </c>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <f t="shared" si="9"/>
         <v>87</v>
@@ -11839,7 +12140,7 @@
       <c r="AJ51" s="4"/>
       <c r="AK51" s="4"/>
     </row>
-    <row r="52" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <f t="shared" si="9"/>
         <v>82</v>
@@ -11876,7 +12177,7 @@
       </c>
       <c r="AK52" s="4"/>
     </row>
-    <row r="53" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <f t="shared" si="9"/>
         <v>77</v>
@@ -11893,12 +12194,9 @@
         <v>19</v>
       </c>
       <c r="U53" s="6" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V53" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W53" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AE53" s="4"/>
@@ -11917,7 +12215,7 @@
       </c>
       <c r="AK53" s="4"/>
     </row>
-    <row r="54" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <f t="shared" si="9"/>
         <v>73</v>
@@ -11934,11 +12232,10 @@
         <f>$AB$1-S54</f>
         <v>32</v>
       </c>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6">
+      <c r="U54" s="6">
         <v>93</v>
       </c>
-      <c r="W54" s="7">
+      <c r="V54" s="7">
         <v>10</v>
       </c>
       <c r="AE54" s="4"/>
@@ -11958,7 +12255,7 @@
       </c>
       <c r="AK54" s="4"/>
     </row>
-    <row r="55" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <f t="shared" si="9"/>
         <v>72</v>
@@ -11975,11 +12272,10 @@
         <f t="shared" ref="T55:T82" si="11">$AB$1-S55</f>
         <v>31</v>
       </c>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6">
+      <c r="U55" s="6">
         <v>113</v>
       </c>
-      <c r="W55" s="7">
+      <c r="V55" s="7">
         <v>10.07</v>
       </c>
       <c r="AE55" s="4"/>
@@ -11999,7 +12295,7 @@
       </c>
       <c r="AK55" s="4"/>
     </row>
-    <row r="56" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <f t="shared" si="9"/>
         <v>71</v>
@@ -12017,11 +12313,10 @@
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6">
+      <c r="U56" s="6">
         <v>154</v>
       </c>
-      <c r="W56" s="7">
+      <c r="V56" s="7">
         <v>9.8699999999999992</v>
       </c>
       <c r="AE56" s="4"/>
@@ -12039,7 +12334,7 @@
       <c r="AJ56" s="7"/>
       <c r="AK56" s="4"/>
     </row>
-    <row r="57" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <f t="shared" si="9"/>
         <v>68</v>
@@ -12057,11 +12352,10 @@
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6">
+      <c r="U57" s="6">
         <v>161</v>
       </c>
-      <c r="W57" s="7">
+      <c r="V57" s="7">
         <v>10.039999999999999</v>
       </c>
       <c r="AE57" s="4"/>
@@ -12079,7 +12373,7 @@
       <c r="AJ57" s="7"/>
       <c r="AK57" s="4"/>
     </row>
-    <row r="58" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>5.9</v>
       </c>
@@ -12096,11 +12390,10 @@
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6">
+      <c r="U58" s="6">
         <v>189</v>
       </c>
-      <c r="W58" s="7">
+      <c r="V58" s="7">
         <v>10.09</v>
       </c>
       <c r="AE58" s="4"/>
@@ -12118,7 +12411,7 @@
       <c r="AJ58" s="7"/>
       <c r="AK58" s="4"/>
     </row>
-    <row r="59" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:37" x14ac:dyDescent="0.25">
       <c r="R59" s="5"/>
       <c r="S59" s="6">
         <f t="shared" si="13"/>
@@ -12128,11 +12421,10 @@
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6">
+      <c r="U59" s="6">
         <v>230</v>
       </c>
-      <c r="W59" s="7">
+      <c r="V59" s="7">
         <v>10.06</v>
       </c>
       <c r="AE59" s="4"/>
@@ -12152,7 +12444,7 @@
       </c>
       <c r="AK59" s="4"/>
     </row>
-    <row r="60" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:37" x14ac:dyDescent="0.25">
       <c r="R60" s="5"/>
       <c r="S60" s="6">
         <f t="shared" si="13"/>
@@ -12162,11 +12454,10 @@
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6">
+      <c r="U60" s="6">
         <v>221</v>
       </c>
-      <c r="W60" s="7">
+      <c r="V60" s="7">
         <v>10</v>
       </c>
       <c r="AE60" s="4"/>
@@ -12184,7 +12475,7 @@
       <c r="AJ60" s="7"/>
       <c r="AK60" s="4"/>
     </row>
-    <row r="61" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:37" x14ac:dyDescent="0.25">
       <c r="R61" s="5"/>
       <c r="S61" s="6">
         <f t="shared" si="13"/>
@@ -12194,11 +12485,10 @@
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6">
+      <c r="U61" s="6">
         <v>226</v>
       </c>
-      <c r="W61" s="7">
+      <c r="V61" s="7">
         <v>9.92</v>
       </c>
       <c r="AE61" s="4"/>
@@ -12216,7 +12506,7 @@
       <c r="AJ61" s="7"/>
       <c r="AK61" s="4"/>
     </row>
-    <row r="62" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:37" x14ac:dyDescent="0.25">
       <c r="R62" s="5"/>
       <c r="S62" s="6">
         <f t="shared" si="13"/>
@@ -12226,11 +12516,10 @@
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6">
+      <c r="U62" s="6">
         <v>230</v>
       </c>
-      <c r="W62" s="7">
+      <c r="V62" s="7">
         <v>10.08</v>
       </c>
       <c r="AE62" s="4"/>
@@ -12250,7 +12539,7 @@
       </c>
       <c r="AK62" s="4"/>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
       <c r="R63" s="5"/>
       <c r="S63" s="6">
         <f t="shared" si="13"/>
@@ -12260,11 +12549,10 @@
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6">
+      <c r="U63" s="6">
         <v>245</v>
       </c>
-      <c r="W63" s="7">
+      <c r="V63" s="7">
         <v>9.93</v>
       </c>
       <c r="AE63" s="4"/>
@@ -12284,7 +12572,7 @@
       </c>
       <c r="AK63" s="4"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
       <c r="R64" s="5"/>
       <c r="S64" s="6">
         <f t="shared" si="13"/>
@@ -12294,11 +12582,10 @@
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6">
+      <c r="U64" s="6">
         <v>233</v>
       </c>
-      <c r="W64" s="7">
+      <c r="V64" s="7">
         <v>10.039999999999999</v>
       </c>
       <c r="AE64" s="4"/>
@@ -12318,7 +12605,7 @@
       </c>
       <c r="AK64" s="4"/>
     </row>
-    <row r="65" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R65" s="5"/>
       <c r="S65" s="6">
         <f t="shared" si="13"/>
@@ -12328,11 +12615,10 @@
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6">
+      <c r="U65" s="6">
         <v>192</v>
       </c>
-      <c r="W65" s="7">
+      <c r="V65" s="7">
         <v>9.9600000000000009</v>
       </c>
       <c r="AE65" s="4"/>
@@ -12352,7 +12638,7 @@
       </c>
       <c r="AK65" s="4"/>
     </row>
-    <row r="66" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="66" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R66" s="5"/>
       <c r="S66" s="6">
         <f t="shared" si="13"/>
@@ -12362,11 +12648,10 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6">
+      <c r="U66" s="6">
         <v>217</v>
       </c>
-      <c r="W66" s="7">
+      <c r="V66" s="7">
         <v>9.99</v>
       </c>
       <c r="AE66" s="4"/>
@@ -12384,7 +12669,7 @@
       <c r="AJ66" s="7"/>
       <c r="AK66" s="4"/>
     </row>
-    <row r="67" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="67" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R67" s="5"/>
       <c r="S67" s="6">
         <f t="shared" si="13"/>
@@ -12394,11 +12679,10 @@
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6">
+      <c r="U67" s="6">
         <v>223</v>
       </c>
-      <c r="W67" s="7">
+      <c r="V67" s="7">
         <v>9.9499999999999993</v>
       </c>
       <c r="AE67" s="4"/>
@@ -12418,7 +12702,7 @@
       </c>
       <c r="AK67" s="4"/>
     </row>
-    <row r="68" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="68" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R68" s="5"/>
       <c r="S68" s="6">
         <f t="shared" si="13"/>
@@ -12428,11 +12712,10 @@
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6">
+      <c r="U68" s="6">
         <v>273</v>
       </c>
-      <c r="W68" s="7">
+      <c r="V68" s="7">
         <v>9.9499999999999993</v>
       </c>
       <c r="AE68" s="4"/>
@@ -12450,7 +12733,7 @@
       <c r="AJ68" s="7"/>
       <c r="AK68" s="4"/>
     </row>
-    <row r="69" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="69" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R69" s="5"/>
       <c r="S69" s="6">
         <f t="shared" si="13"/>
@@ -12460,11 +12743,10 @@
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6">
+      <c r="U69" s="6">
         <v>243</v>
       </c>
-      <c r="W69" s="7">
+      <c r="V69" s="7">
         <v>10.02</v>
       </c>
       <c r="AE69" s="4"/>
@@ -12482,7 +12764,7 @@
       <c r="AJ69" s="7"/>
       <c r="AK69" s="4"/>
     </row>
-    <row r="70" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="70" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R70" s="5"/>
       <c r="S70" s="6">
         <f>S69+1</f>
@@ -12492,11 +12774,10 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6">
+      <c r="U70" s="6">
         <v>247</v>
       </c>
-      <c r="W70" s="7">
+      <c r="V70" s="7">
         <v>9.9499999999999993</v>
       </c>
       <c r="AE70" s="4"/>
@@ -12513,7 +12794,7 @@
       <c r="AJ70" s="11"/>
       <c r="AK70" s="4"/>
     </row>
-    <row r="71" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="71" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R71" s="5"/>
       <c r="S71" s="6">
         <f t="shared" ref="S71:S75" si="14">S70+1</f>
@@ -12523,10 +12804,10 @@
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="V71" s="10">
+      <c r="U71" s="10">
         <v>315</v>
       </c>
-      <c r="W71" s="11">
+      <c r="V71" s="11">
         <v>10.25</v>
       </c>
       <c r="AE71" s="4"/>
@@ -12544,7 +12825,7 @@
       <c r="AJ71" s="14"/>
       <c r="AK71" s="4"/>
     </row>
-    <row r="72" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="72" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R72" s="5"/>
       <c r="S72" s="6">
         <f t="shared" si="14"/>
@@ -12554,11 +12835,10 @@
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="U72" s="12"/>
-      <c r="V72" s="13">
+      <c r="U72" s="13">
         <v>256</v>
       </c>
-      <c r="W72" s="14">
+      <c r="V72" s="14">
         <v>10.050000000000001</v>
       </c>
       <c r="AE72" s="4"/>
@@ -12576,7 +12856,7 @@
       <c r="AJ72" s="7"/>
       <c r="AK72" s="4"/>
     </row>
-    <row r="73" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="73" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R73" s="5"/>
       <c r="S73" s="6">
         <f t="shared" si="14"/>
@@ -12586,11 +12866,10 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="U73" s="12"/>
-      <c r="V73" s="6">
+      <c r="U73" s="6">
         <v>206</v>
       </c>
-      <c r="W73" s="7">
+      <c r="V73" s="7">
         <v>10</v>
       </c>
       <c r="AE73" s="4"/>
@@ -12604,7 +12883,7 @@
       <c r="AJ73" s="7"/>
       <c r="AK73" s="4"/>
     </row>
-    <row r="74" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="74" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R74" s="5"/>
       <c r="S74" s="6">
         <f t="shared" si="14"/>
@@ -12614,11 +12893,10 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U74" s="12"/>
-      <c r="V74" s="6">
+      <c r="U74" s="6">
         <v>269</v>
       </c>
-      <c r="W74" s="7">
+      <c r="V74" s="7">
         <v>9.9600000000000009</v>
       </c>
       <c r="AE74" s="4"/>
@@ -12632,7 +12910,7 @@
       <c r="AJ74" s="7"/>
       <c r="AK74" s="4"/>
     </row>
-    <row r="75" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="75" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R75" s="4"/>
       <c r="S75" s="6">
         <f t="shared" si="14"/>
@@ -12642,11 +12920,10 @@
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="U75" s="12"/>
-      <c r="V75" s="6">
+      <c r="U75" s="6">
         <v>233</v>
       </c>
-      <c r="W75" s="7">
+      <c r="V75" s="7">
         <v>10.050000000000001</v>
       </c>
       <c r="AE75" s="4"/>
@@ -12660,7 +12937,7 @@
       <c r="AJ75" s="14"/>
       <c r="AK75" s="4"/>
     </row>
-    <row r="76" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="76" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R76" s="4"/>
       <c r="S76" s="6">
         <f>S75+1</f>
@@ -12670,11 +12947,10 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="U76" s="6"/>
-      <c r="V76" s="13">
+      <c r="U76" s="13">
         <v>200</v>
       </c>
-      <c r="W76" s="14">
+      <c r="V76" s="14">
         <v>9.84</v>
       </c>
       <c r="AE76" s="4"/>
@@ -12688,7 +12964,7 @@
       <c r="AJ76" s="6"/>
       <c r="AK76" s="4"/>
     </row>
-    <row r="77" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="77" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R77" s="4"/>
       <c r="S77" s="6">
         <f>S76+1</f>
@@ -12698,11 +12974,10 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="U77" s="6"/>
+      <c r="U77" s="6">
+        <v>205</v>
+      </c>
       <c r="V77" s="6">
-        <v>205</v>
-      </c>
-      <c r="W77" s="6">
         <v>9.9700000000000006</v>
       </c>
       <c r="AE77" s="4"/>
@@ -12716,7 +12991,7 @@
       <c r="AM77" s="4"/>
       <c r="AN77" s="4"/>
     </row>
-    <row r="78" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="78" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R78" s="4"/>
       <c r="S78" s="6">
         <f t="shared" ref="S78:S82" si="15">S77+1</f>
@@ -12726,11 +13001,10 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="U78" s="12"/>
-      <c r="V78" s="13">
+      <c r="U78" s="13">
         <v>253</v>
       </c>
-      <c r="W78" s="14">
+      <c r="V78" s="14">
         <v>9.99</v>
       </c>
       <c r="X78" s="4"/>
@@ -12750,7 +13024,7 @@
       <c r="AL78" s="4"/>
       <c r="AN78" s="4"/>
     </row>
-    <row r="79" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="79" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R79" s="4"/>
       <c r="S79" s="6">
         <f t="shared" si="15"/>
@@ -12760,11 +13034,10 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="U79" s="12"/>
+      <c r="U79" s="13">
+        <v>267</v>
+      </c>
       <c r="V79" s="13">
-        <v>267</v>
-      </c>
-      <c r="W79" s="13">
         <v>9.8800000000000008</v>
       </c>
       <c r="X79" s="4"/>
@@ -12776,7 +13049,7 @@
       <c r="AJ79" s="13"/>
       <c r="AN79" s="4"/>
     </row>
-    <row r="80" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="80" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R80" s="4"/>
       <c r="S80" s="6">
         <f t="shared" si="15"/>
@@ -12801,7 +13074,7 @@
       <c r="AJ80" s="13"/>
       <c r="AN80" s="4"/>
     </row>
-    <row r="81" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="81" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R81" s="4"/>
       <c r="S81" s="6">
         <f t="shared" si="15"/>
@@ -12823,7 +13096,7 @@
       <c r="AJ81" s="13"/>
       <c r="AN81" s="4"/>
     </row>
-    <row r="82" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="82" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R82" s="4"/>
       <c r="S82" s="6">
         <f t="shared" si="15"/>
@@ -12840,7 +13113,7 @@
       <c r="AE82" s="4"/>
       <c r="AN82" s="4"/>
     </row>
-    <row r="83" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="83" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -12851,7 +13124,7 @@
       <c r="AE83" s="4"/>
       <c r="AN83" s="4"/>
     </row>
-    <row r="84" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="84" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R84" s="4"/>
       <c r="S84" s="6" t="s">
         <v>29</v>
@@ -12871,7 +13144,7 @@
       <c r="AE84" s="4"/>
       <c r="AN84" s="4"/>
     </row>
-    <row r="85" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="85" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R85" s="4"/>
       <c r="S85" s="6">
         <v>0</v>
@@ -12890,7 +13163,7 @@
       <c r="AE85" s="4"/>
       <c r="AN85" s="4"/>
     </row>
-    <row r="86" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="86" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R86" s="4"/>
       <c r="S86" s="6">
         <v>2</v>
@@ -12909,7 +13182,7 @@
       <c r="AE86" s="4"/>
       <c r="AN86" s="4"/>
     </row>
-    <row r="87" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="87" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R87" s="4"/>
       <c r="S87" s="6">
         <v>4</v>
@@ -12928,7 +13201,7 @@
       <c r="AE87" s="4"/>
       <c r="AN87" s="4"/>
     </row>
-    <row r="88" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="88" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R88" s="4"/>
       <c r="S88" s="6">
         <f>S87+2</f>
@@ -12948,7 +13221,7 @@
       <c r="AE88" s="4"/>
       <c r="AN88" s="4"/>
     </row>
-    <row r="89" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="89" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R89" s="4"/>
       <c r="S89" s="6">
         <f t="shared" ref="S89:S101" si="17">S88+2</f>
@@ -12968,7 +13241,7 @@
       <c r="AE89" s="4"/>
       <c r="AN89" s="4"/>
     </row>
-    <row r="90" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="90" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R90" s="4"/>
       <c r="S90" s="6">
         <f t="shared" si="17"/>
@@ -12988,7 +13261,7 @@
       <c r="AE90" s="4"/>
       <c r="AN90" s="4"/>
     </row>
-    <row r="91" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="91" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R91" s="4"/>
       <c r="S91" s="6">
         <f t="shared" si="17"/>
@@ -13008,7 +13281,7 @@
       <c r="AE91" s="4"/>
       <c r="AN91" s="4"/>
     </row>
-    <row r="92" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="92" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R92" s="4"/>
       <c r="S92" s="6">
         <f t="shared" si="17"/>
@@ -13028,7 +13301,7 @@
       <c r="AE92" s="4"/>
       <c r="AN92" s="4"/>
     </row>
-    <row r="93" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="93" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R93" s="4"/>
       <c r="S93" s="6">
         <f t="shared" si="17"/>
@@ -13054,7 +13327,7 @@
       <c r="AM93" s="4"/>
       <c r="AN93" s="4"/>
     </row>
-    <row r="94" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="94" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R94" s="4"/>
       <c r="S94" s="6">
         <f t="shared" si="17"/>
@@ -13069,7 +13342,7 @@
       <c r="W94" s="7"/>
       <c r="AE94" s="4"/>
     </row>
-    <row r="95" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="95" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R95" s="4"/>
       <c r="S95" s="6">
         <f t="shared" si="17"/>
@@ -13084,7 +13357,7 @@
       <c r="W95" s="7"/>
       <c r="AE95" s="4"/>
     </row>
-    <row r="96" spans="18:40" x14ac:dyDescent="0.3">
+    <row r="96" spans="18:40" x14ac:dyDescent="0.25">
       <c r="R96" s="4"/>
       <c r="S96" s="6">
         <f t="shared" si="17"/>
@@ -13099,7 +13372,7 @@
       <c r="W96" s="7"/>
       <c r="AE96" s="4"/>
     </row>
-    <row r="97" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="18:31" x14ac:dyDescent="0.25">
       <c r="R97" s="4"/>
       <c r="S97" s="6">
         <f t="shared" si="17"/>
@@ -13114,7 +13387,7 @@
       <c r="W97" s="7"/>
       <c r="AE97" s="4"/>
     </row>
-    <row r="98" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="18:31" x14ac:dyDescent="0.25">
       <c r="R98" s="4"/>
       <c r="S98" s="6">
         <f t="shared" si="17"/>
@@ -13129,7 +13402,7 @@
       <c r="W98" s="7"/>
       <c r="AE98" s="4"/>
     </row>
-    <row r="99" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="18:31" x14ac:dyDescent="0.25">
       <c r="R99" s="4"/>
       <c r="S99" s="6">
         <f t="shared" si="17"/>
@@ -13144,7 +13417,7 @@
       <c r="W99" s="7"/>
       <c r="AE99" s="4"/>
     </row>
-    <row r="100" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="18:31" x14ac:dyDescent="0.25">
       <c r="R100" s="4"/>
       <c r="S100" s="6">
         <f t="shared" si="17"/>
@@ -13159,7 +13432,7 @@
       <c r="W100" s="7"/>
       <c r="AE100" s="4"/>
     </row>
-    <row r="101" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="18:31" x14ac:dyDescent="0.25">
       <c r="R101" s="4"/>
       <c r="S101" s="6">
         <f t="shared" si="17"/>
@@ -13174,7 +13447,7 @@
       <c r="W101" s="7"/>
       <c r="AE101" s="4"/>
     </row>
-    <row r="102" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="18:31" x14ac:dyDescent="0.25">
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
@@ -13189,84 +13462,84 @@
       <c r="AC102" s="4"/>
       <c r="AE102" s="4"/>
     </row>
-    <row r="103" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
       <c r="U103" s="12"/>
       <c r="V103" s="13"/>
       <c r="W103" s="14"/>
     </row>
-    <row r="104" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="12"/>
       <c r="V104" s="6"/>
       <c r="W104" s="7"/>
     </row>
-    <row r="105" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
       <c r="U105" s="12"/>
       <c r="V105" s="6"/>
       <c r="W105" s="7"/>
     </row>
-    <row r="106" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
       <c r="U106" s="12"/>
       <c r="V106" s="6"/>
       <c r="W106" s="7"/>
     </row>
-    <row r="107" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
       <c r="V107" s="13"/>
       <c r="W107" s="14"/>
     </row>
-    <row r="108" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
       <c r="W108" s="6"/>
     </row>
-    <row r="109" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="12"/>
       <c r="V109" s="13"/>
       <c r="W109" s="14"/>
     </row>
-    <row r="110" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
       <c r="U110" s="12"/>
       <c r="V110" s="13"/>
       <c r="W110" s="13"/>
     </row>
-    <row r="111" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
       <c r="U111" s="12"/>
       <c r="V111" s="13"/>
       <c r="W111" s="13"/>
     </row>
-    <row r="112" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="18:31" x14ac:dyDescent="0.25">
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
       <c r="U112" s="12"/>
       <c r="V112" s="13"/>
       <c r="W112" s="13"/>
     </row>
-    <row r="113" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
       <c r="U113" s="12"/>
       <c r="V113" s="13"/>
       <c r="W113" s="13"/>
     </row>
-    <row r="114" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S114" s="6"/>
     </row>
   </sheetData>
@@ -13286,9 +13559,9 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -13304,7 +13577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bloque Cuantica-Estadistica/P8 Fermi/P8.xlsx
+++ b/Bloque Cuantica-Estadistica/P8 Fermi/P8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpetas de datos\Desktop\UNI-Alicante\T-cnicas-experimentales-II\Bloque Cuantica-Estadistica\P8 Fermi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99664912-FDD4-4D29-88C4-327E9A9BAF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36926972-DD01-48F5-913A-D28037DE7ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cambiando Altura" sheetId="1" r:id="rId1"/>
@@ -3974,12 +3974,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>n(E) para temperatur</a:t>
+              <a:t>n(E) con T baja</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t>a baja (A baja)</a:t>
-            </a:r>
+            <a:endParaRPr lang="es-ES" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4014,7 +4011,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6211921327465506E-2"/>
+          <c:y val="0.14434951128160459"/>
+          <c:w val="0.89395865930801899"/>
+          <c:h val="0.73700265999104175"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4043,12 +4050,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cambiando Altura'!$AG$53:$AG$76</c:f>
+              <c:f>'Cambiando Altura'!$AG$53:$AG$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42</c:v>
                 </c:pt>
@@ -4108,28 +4154,16 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cambiando Altura'!$AI$53:$AI$76</c:f>
+              <c:f>'Cambiando Altura'!$AI$53:$AI$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -4182,13 +4216,13 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4232,6 +4266,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>h (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4294,6 +4383,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n(h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4421,12 +4565,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>n(E)</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> con t = 5, T media</a:t>
+              <a:t> t = 5, T media</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4491,6 +4631,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'Cambiando Altura'!$T$85:$T$101</c:f>
@@ -4582,7 +4761,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4626,6 +4805,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>h ( mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4688,6 +4922,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n(h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10379,8 +10668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X75" sqref="X75"/>
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12789,7 +13078,7 @@
         <v>33.5</v>
       </c>
       <c r="AI70" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ70" s="11"/>
       <c r="AK70" s="4"/>
@@ -12820,7 +13109,7 @@
       </c>
       <c r="AH71" s="12"/>
       <c r="AI71" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ71" s="14"/>
       <c r="AK71" s="4"/>
@@ -12851,7 +13140,7 @@
       </c>
       <c r="AH72" s="12"/>
       <c r="AI72" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AJ72" s="7"/>
       <c r="AK72" s="4"/>
@@ -12874,10 +13163,7 @@
       </c>
       <c r="AE73" s="4"/>
       <c r="AF73" s="6"/>
-      <c r="AG73" s="6">
-        <f t="shared" si="12"/>
-        <v>42</v>
-      </c>
+      <c r="AG73" s="6"/>
       <c r="AH73" s="12"/>
       <c r="AI73" s="6"/>
       <c r="AJ73" s="7"/>
@@ -12901,10 +13187,7 @@
       </c>
       <c r="AE74" s="4"/>
       <c r="AF74" s="6"/>
-      <c r="AG74" s="6">
-        <f t="shared" si="12"/>
-        <v>42</v>
-      </c>
+      <c r="AG74" s="6"/>
       <c r="AH74" s="12"/>
       <c r="AI74" s="6"/>
       <c r="AJ74" s="7"/>
@@ -12928,10 +13211,7 @@
       </c>
       <c r="AE75" s="4"/>
       <c r="AF75" s="6"/>
-      <c r="AG75" s="6">
-        <f t="shared" si="12"/>
-        <v>42</v>
-      </c>
+      <c r="AG75" s="6"/>
       <c r="AH75" s="6"/>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="14"/>
@@ -12955,10 +13235,7 @@
       </c>
       <c r="AE76" s="4"/>
       <c r="AF76" s="6"/>
-      <c r="AG76" s="6">
-        <f t="shared" si="12"/>
-        <v>42</v>
-      </c>
+      <c r="AG76" s="6"/>
       <c r="AH76" s="6"/>
       <c r="AI76" s="6"/>
       <c r="AJ76" s="6"/>
@@ -13313,7 +13590,7 @@
       </c>
       <c r="U93" s="6"/>
       <c r="V93" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W93" s="7"/>
       <c r="AE93" s="4"/>
@@ -13555,7 +13832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B7139C-198C-4000-8E36-04F8B3D2C4EE}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
